--- a/biology/Botanique/Décussé/Décussé.xlsx
+++ b/biology/Botanique/Décussé/Décussé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -519,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +549,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Abaxial : adjectif, dont la direction est opposée à la direction de la tige ou de l'axe (= face inférieure).
 Aberrant : adjectif, qui diffère de la normale, anormal.
@@ -586,7 +600,7 @@
 Albumen : nom masculin, tissu de réserve d'une graine.
 Allèle : nom ou adjectif, l'une des deux formes que peut prendre un gène sur un chromosome.
 Allochorie : dissémination des diaspores par un vecteur quelconque autre que le végétal lui-même.
-Allorhize : système racinaire dans lequel la racine principale est dans la continuation de l'axe longitudinal de l'embryon, la radicule poursuivant sa croissance (antonyme : homorhize)[1].
+Allorhize : système racinaire dans lequel la racine principale est dans la continuation de l'axe longitudinal de l'embryon, la radicule poursuivant sa croissance (antonyme : homorhize).
 Alterne : adjectif désignant des feuilles disposées de chaque côté de la tige, à des hauteurs différentes.
 Alvéole (un ou une) : petite fossette à contour souvent anguleux.
 Amas : regroupement de bourgeons épicormiques irrégulièrement juxtaposés.
@@ -679,7 +693,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -697,7 +711,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Baie : fruit charnu indéhiscent sans noyau.
 Barochore : adjectif désignant une dispersion des graines par gravité, à proximité immédiate de la plante mère.
@@ -719,7 +735,7 @@
 Bipenné : se dit d'une feuille pennée dont les folioles sont elles-mêmes pennées. Ex. : le mimosa.
 Bipennatiséqué : se dit d'une feuille pennatiséquée dont les segments sont eux-mêmes pennatiséqués.
 Bisannuelle : adjectif désignant une plante vivant pendant deux saisons successives. En général, une plante bisannuelle donne des feuilles en rosette la première année et fleurit la seconde année.
-Bisérié : adjectif, disposé sur deux rangs[2].
+Bisérié : adjectif, disposé sur deux rangs.
 Blastochorie : mode de dissémination des diaspores résultant de l'extension des longs rameux pendants qui les portent.
 Bois : tissu complexe produit par la face interne d'un  cambium cribro-vasculaire ; il contient le xylème  secondaire.
 Bourgeon structure contenant un méristème susceptible de produire soit un rameau feuillé, soit un appareil floral.
@@ -750,7 +766,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -768,7 +784,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C3 et C4 : chez les plantes dites « en C3 », lors de la photosynthèse, le premier intermédiaire stable a une molécule à 3 atomes de carbone; chez les plantes dites « en C4 », le premier produit est un acide dont la molécule a 4 atomes de carbone.
 Cabosse : fruit du cacaoyer.
@@ -931,7 +949,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -949,7 +967,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dard : bourgeon qui donnera une pousse feuillée chez un arbre fruitier.
 Débourrement : sortie de sa bourre pour un bourgeon, phase de reprise de végétation et d'allongement des bourgeons.
@@ -965,13 +985,13 @@
 Dendrogramme :expression graphique de relations taxonomiques calculées.
 Denté : adjectif, bordé de dents, c.-à-d. de petites saillies plus ou moins triangulaires.
 Denticulé : adjectif, bordé de fines dents (denticules).
-Dépérissement : affaiblissement progressif ou momentané d'un organisme, aboutissant parfois à sa mort et résultant de dérangements physiologiques ou d'affections parasitaires[3].
+Dépérissement : affaiblissement progressif ou momentané d'un organisme, aboutissant parfois à sa mort et résultant de dérangements physiologiques ou d'affections parasitaires.
 Déprimé : aplati et même légèrement creux au sommet.
 Déterminée : adjectif : se dit de la croissance végétative si le bourgeon terminal se transforme en inflorescence. Opposée à indéterminée si le bourgeon terminal reste végétatif.
 Détersile : qui se détache de son support facilement, sans le plus petit effort.
 Dextrorse : se dit des tiges volubiles qui s'enroulent dans le sens des aiguilles d'une montre.
 Diadelphe : adjectif désignant une fleur dont les étamines sont assemblées en deux groupes.
-Diagéotropique : se dit d'un élément de plante croissant horizontalement dans le sol, au plus près de la surface (exemple : la pomme de terre)[4].
+Diagéotropique : se dit d'un élément de plante croissant horizontalement dans le sol, au plus près de la surface (exemple : la pomme de terre).
 Diagramme floral : représentation rigoureuse de l'organisation d'une fleur sous une forme schématique conventionnelle.
 Dialycarpellé : les carpelles restent distincts les uns des autres et disposés en spirale ou en verticille.
 Dialypétale : adjectif, corolle dont les pétales sont libres.
@@ -1016,7 +1036,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1034,7 +1054,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Écaille : organe de nature variée, en forme de lame courte, membraneuse, coriace et parfois lignifiée.
 Échancré : pourvu d'une entaille peu profonde. Ex. : une silicule échancrée au sommet.
@@ -1105,7 +1127,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1123,15 +1145,17 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Faisceau : groupe d'organes (feuilles, racines…) attaché par la base et par groupe de trois unités au minimum[5], sur un même support. Ces organes sont dits « fasciculés » (exemple : fleurs de cerisier).
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Faisceau : groupe d'organes (feuilles, racines…) attaché par la base et par groupe de trois unités au minimum, sur un même support. Ces organes sont dits « fasciculés » (exemple : fleurs de cerisier).
 Falciforme : en forme de faux ou de faucille.
 Fanaison : amollissement des rameaux, des feuilles, des fleurs, qui deviennent pendants par évaporation de l'eau.
 Farineux : couvert d'une poudre cireuse comparable à de la farine.
 Fasciation : croissance anormale du sommet d'une tige en forme de faisceau.
 Fascicule : inflorescence en cyme où les fleurs sont portées par des axes très brefs disposés régulièrement.
-Fasciculé : Se dit d'organes disposés en faisceaux, c'est-à-dire insérés en un point unique (ex: les racines de Poacées, les aiguilles de pin)[6].
+Fasciculé : Se dit d'organes disposés en faisceaux, c'est-à-dire insérés en un point unique (ex: les racines de Poacées, les aiguilles de pin).
 Fasciée (plante) : plante affectée par une fasciation.
 Fastigié : se dit de branches ou de rameaux dressés en oblique ou presque verticalement ; ce qui donne à l'individu un port en colonne (port dit « fastigié »).
 Fausse cloison : dans un fruit, cloison surnuméraire qui ne correspond pas à une paroi carpellaire.
@@ -1149,7 +1173,7 @@
 Flagelliforme : se dit d'une tige mince et souple, en forme de fouet, portant généralement des feuilles réduites.
 Flèche : partie terminale de la branche centrale verticale d'un arbre.
 Fleur : organe reproducteur de la plante.
-Fleur double : expression utilisée pour des plantes dont les fleurs présentent des pétales surnuméraires (plus de deux fois le nombre de pétales que la plante sauvage)[7].
+Fleur double : expression utilisée pour des plantes dont les fleurs présentent des pétales surnuméraires (plus de deux fois le nombre de pétales que la plante sauvage).
 Fleuron : fleur tubulée d'un capitule.
 Flexueux : adjectif, plusieurs fois courbé dans des directions différentes.
 Florifère : qui porte des fleurs.
@@ -1177,7 +1201,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1195,7 +1219,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gaine foliaire, Gaine : partie plus ou mois dilatée de la base d'une feuille entourant la tige.
 Galbule : cône femelle des Gymnospermes dont les écailles ovulifères sont soudées en une masse simulant une baie.
@@ -1261,7 +1287,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1279,7 +1305,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Halonitrophile : se dit d'une plante halophile et nitrophile.
 Halophile : se dit d'une plante qui vit exclusivement ou de préférence dans les milieux salés.
@@ -1314,7 +1342,7 @@
 Hibernacle : bourgeons spécialisés apparaissant en automne chez certains hydrophytes, pouvant s'en détacher et assurer ainsi la pérennité de la plante. Ex. : les potamots.
 Hile : cicatrice laissée par le funicule sur la graine. Il correspond au point d'insertion du funicule sur l'ovule.
 Hispide : garni de poils raides, espacés et plus ou moins piquants, comme chez de nombreuses boraginacées.
-Homorhize : système racinaire dans lequel la radicule cesse de croître, les racines adventives se développant plus ou moins latéralement à partir de la pousse (antonyme : Allorhize)[8].
+Homorhize : système racinaire dans lequel la radicule cesse de croître, les racines adventives se développant plus ou moins latéralement à partir de la pousse (antonyme : Allorhize).
 Homostylie : opposé d'hétérostylie. Plante dont tous les styles ont la même longueur.
 Houppier : ensemble de la partie feuille d'un arbre.
 Humicole : adjectif, se dit d'un organisme qui vit sur le sols riches en humus en exploitant, sans spécificité particulière, la litière  en décomposition (Lepista nuda, Lycoperdon perlatum…).
@@ -1350,7 +1378,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1368,7 +1396,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ichtyochorie : dissémination des diaspores par les poissons.
 Idioblaste : cellules spécialisées du tissu végétal qui diffèrent du tissu à proprement dit par leur forme ou leur contenu.
@@ -1403,7 +1433,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1421,7 +1451,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jonciforme ou Junciforme : adjectif, qui a l'aspect du jonc.</t>
         </is>
@@ -1433,7 +1465,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1451,7 +1483,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Kranz (anatomie) (ou structure kranz), structure anatomique des feuilles qui se rencontre chez la plupart des plantes en  C4, se caractérise par la présence de deux anneaux de cellules concentriques entourant les faisceaux vasculaires.</t>
         </is>
@@ -1463,7 +1497,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1481,7 +1515,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Labelle : pétale caractéristique des orchidacées, orienté vers le bas, pouvant imiter l'apparence d'un insecte ou prendre des formes spectaculaires.
 Lacinié : adjectif, découpé irrégulièrement en lanières (du latin lacinia, lambeau).
@@ -1499,7 +1535,7 @@
 Légume : synonyme de gousse, fruit des légumineuses (du latin legumen, plante à gousse).
 Lemme : glumelle inférieure (externe) dans l'épillet des Poacées.
 Lenticelle: petite fente servant aux échanges de gaz, que l'on rencontre sur les écorces des arbres et arbustes.
-Lepanthium : Pétale portant un nectaire[6].
+Lepanthium : Pétale portant un nectaire.
 Leptosporangié : adjectif qualifiant, chez les Ptéridophytes, un sporange avec une enveloppe composée d'une seule assise de cellules, on parle de leptosporange. Terme opposé à eusporangié.
 Leucoplaste : plaste incolore.
 Liane : plante grimpante ou volubile.
@@ -1537,7 +1573,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1555,14 +1591,16 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Macromycète : s'emploie parfois, plus fréquemment en anglais (macromycete), pour désigner les champignons, naguère dits « supérieurs », dont le sporophore est visible à l'œil nu.
 Macule : tache de couleur, de taille et de localisation variables.
  Malacophilie : mode de pollinisation dans lequel le pollen est transporté par des mollusques.
 Manchon foliaire : (en anglais crownshaft) pour un palmier, le manchon foliaire est la partie lisse et enflée située au sommet de la tige. Il est constitué des bases foliaires épaissies des feuilles, soudées entre elles pour former une gaine protectrice autour de la tige.
 Marcescent : adjectif, se dit d'une plante dont les feuilles mortes persistent tout l'hiver (exemple : le charme). Par extension, cet adjectif est aussi utilisé pour d'autres organes persistants, par ex. un périanthe desséché autour d'un fruit.
-Marge foliaire : Contour du limbe. La marge foliaire peut être entière, dentée, ondulée, ciliée, épineuse, etc.[9].
+Marge foliaire : Contour du limbe. La marge foliaire peut être entière, dentée, ondulée, ciliée, épineuse, etc..
 Méat : espace libre intercellulaire, passage, dans un tissu végétal.
 Médifixe : se dit quand le filet s'insère au milieu de l'anthère.
 Mélissopalynologie : étude des pollens contenus dans les miels.
@@ -1610,7 +1648,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1628,7 +1666,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Nanophanérophyte : phanérophyte haut de moins de 2 mètres.
 Naptie : mouvement rapide et réversible d'un organe adulte, intervenant en réponse à un stimulus.
@@ -1658,7 +1698,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1676,7 +1716,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Ob-*  : préfixe signifiant : à l'envers. Ex. : obcordé, obconique, obpyramidal, etc.
 Obsidional : se dit d'une plante ou d'une flore que l'on retrouve spécifiquement sur d'anciens champs de bataille.
@@ -1698,7 +1740,7 @@
 Ornithogame : se dit d'une espèce dont la fécondation des fleurs est assurée par les oiseaux
 Ornithogamie : mode de pollinisation dans lequel le pollen est transporté par les oiseaux
  Orthotrope : qui croit vers le haut ; se dit d'un ovule dont le micropyle, le sac embryonnaire, le chalaze et le funicule sont alignés  (synonyme : atrope).
-Osselets : gros pépins lignifiés du néflierr[10]
+Osselets : gros pépins lignifiés du néflierr
 Ostiole : pore de stomates qui s'ouvre ou se ferme en fonction des variations de turgescence des deux cellules qui la définissent
 Ovaire : partie inférieure du pistil, formée d'une ou plusieurs loges, et contenant les ovules qui deviendront ensuite des graines après fécondation.
 Ovale : se dit d'un organe plan dont la surface rappelle celle d'une coupe longitudinale pratiquée dans un œuf, le « gros bout » étant situé vers le bas.
@@ -1715,7 +1757,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1733,7 +1775,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Paillette : petite écaille, plus ou moins translucide, fixée sur le réceptacle de l'inflorescence de certaines astéracées, dipsacacées, etc. Les paillettes sont insérées entre les fleurs.
 Palais : partie saillante qui ferme plus ou moins la gorge de certaines corolles gamopétales à symétrie bilatérale.
@@ -1773,7 +1817,7 @@
 Pédoncule : terme désignant la tige (la « queue ») d'une fleur, distincte de la tige de la plante. Une fleur pédonculée.
 Pellucide : mince et presque transparent.
 Pélorie : état d'une fleur qui, étant habituellement à symétrie bilatérale, prend, dans un cas individuel, une forme à symétrie axiale. Cette anomalie est fréquente chez les Scrophulariacées (ex. : digitale).
-Pelté : orbiculaire et fixé par le centre / feuille dont l'apex du pétiole est distant, si peu que ce soit, de la marge[11]. Ex. : l'hydrocotyle vulgaire.
+Pelté : orbiculaire et fixé par le centre / feuille dont l'apex du pétiole est distant, si peu que ce soit, de la marge. Ex. : l'hydrocotyle vulgaire.
 Pennati-* : relatif au découpage en lobes d'une feuille « pennée », dont la profondeur est indiquée par le suffixe.
 Penne : chez les fougères, division de premier ordre dans le cas d'une feuille deux à plusieurs fois divisées.
 Pennée : se dit d'une feuille composée divisée en folioles disposées des deux côtés du pétiole comme les barbes d'une plume. Le terme peut aussi s'employer pour une feuille simple dont les nervures ont cette disposition.
@@ -1861,10 +1905,10 @@
 Ponctué : marqué de ponctuations, de petites taches.
 Poricide : se dit d'une capsule dont la déhiscence se fait au niveau de pores.
 Porrigé : se dit d'un organe fixé droit sur la surface d'insertion (par opposition à un organe courbé par son poids).
-Port : aspect morphologique externe d'une plante. On décrit une trentaine de ports types chez les spermaphytes[12].
+Port : aspect morphologique externe d'une plante. On décrit une trentaine de ports types chez les spermaphytes.
 Porte-greffe : plante munie de ses racines assurant la nutrition hydrominérale d'un greffon.
 Praticole : adjectif, qui vit dans les prés.
-Préfeuille : petite feuille présente sur le pédoncule floral, unique chez les monocotylédones, double chez les dicotylédones. On l'assimile quelquefois, à tort, au cotylédon qui, lui, est une feuille embryonnaire (unique ou double) strictement liée à la graine et à la plantule[12].
+Préfeuille : petite feuille présente sur le pédoncule floral, unique chez les monocotylédones, double chez les dicotylédones. On l'assimile quelquefois, à tort, au cotylédon qui, lui, est une feuille embryonnaire (unique ou double) strictement liée à la graine et à la plantule.
 Préfloraison : disposition des pièces du périanthe dans le bouton, avant l'épanouissement de la fleur.
 Préfoliation ou préfoliaison : disposition des feuilles préformées dans les bourgeons.
 Prélinnéen : antérieur à la publication de l’œuvre de Linné qui établit la nomenclature binomiale en 1753.
@@ -1903,7 +1947,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1921,7 +1965,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>-quètre à autant d'angles vifs et de faces concaves que le préfixe en indique (triquètre, tétraquètre ou 4-quètre...)
 Quinconcial : disposition d'une séquence de pièces homologues sur la tige ou le réceptacle, dans lequel deux pièces successives sont séparées par un angle  équivalent à 2/5 de circonférence (144°).</t>
@@ -1934,7 +1980,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1952,7 +1998,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Racème : synonyme de grappe.
 Rachis : axe principal ; chez les feuilles composées et pennées le rachis porte les folioles ou les divisions de premier ordre ; axe central des fleurs disposées en épi (ex. : Famille des Poacées).
@@ -1984,8 +2032,8 @@
 Régulier : se dit d'un verticille floral dont toutes les pièces qui le composent sont identiques en forme et en taille.
 Rejet : pousse apparaissant à la base d'une tige.
 Réniforme : en forme de rein. Une feuille réniforme.
-Résistance dite horizontale : résistance partielle,incomplète, causée par l'effet conjoint de quelques gènes[13].
-Résistance dite verticale : résistance totale causée par l'effet d'un gène[13].
+Résistance dite horizontale : résistance partielle,incomplète, causée par l'effet conjoint de quelques gènes.
+Résistance dite verticale : résistance totale causée par l'effet d'un gène.
 Résineux : nom souvent donné aux conifères, ces arbres produisant de la résine.
 Résupiné : renversé, qui offre en haut les parties dont la situation devrait être en bas.
 Réticulé : marqué d'un réseau de lignes ou de crêtes; ex. une nervation réticulée.
@@ -2025,7 +2073,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2043,7 +2091,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Sac embryonnaire : gamétophyte femelle; groupe de cellules inégales et haploïdes contenu dans l'ovule.
 Sac pollinique : cavité restante après la formation des grains de pollen. Chaque loge d'anthère comprend deux sacs polliniques.
@@ -2064,7 +2114,7 @@
 Sclérote : fragment de mycélium compact. C'est une forme de résistance à des conditions défavorables.
 Scorpioïde : se dit d'une cyme unipare en forme de crosse ou de queue de scorpion. Ex. la cyme scorpioïde des myosotis.
 Scrobicule : petite fossette moins profonde qu'un alvéole et plus ou moins arrondie à la surface d'un organe, dit scrobiculé (ex. le pied de certains lactaires).
-Seconde : se dit de feuilles d'une mousse dont les pointes sont dirigées dans la même direction, indifféremment de leur insertion sur la tige[14].
+Seconde : se dit de feuilles d'une mousse dont les pointes sont dirigées dans la même direction, indifféremment de leur insertion sur la tige.
 Segment foliaire : division d'un limbe profondément découpé ; dans un limbe deux à trois fois penné, on réserve le nom de segment foliaire aux dernières subdivisions reconnaissables.
 Séismonastie : mouvement réversible d'un organe survenant en réponse à un choc.
 Semence : élément unitaire de dissémination des embryons, le plus souvent une graine, mais par extension un organe  permettant la multiplication d'une plante même par voie végétative.
@@ -2132,7 +2182,7 @@
 petit pied ou support étroit portant un ou plusieurs organes. Chacun des akènes des Ruppia et des Zannichellia est porté par un stipe.
 Stipelle : petit appendice analogue à une stipule, présent à la base des folioles de certaines feuilles composées.
 Stipité : porté par un stipe.
-Stipule : appendice le plus souvent foliacé ou membraneux, parfois aussi en forme d'épine ou de glande, inséré au point où le pétiole se relie à la tige - ou parfois où le limbe joint la tige en cas de feuille sessile[15].
+Stipule : appendice le plus souvent foliacé ou membraneux, parfois aussi en forme d'épine ou de glande, inséré au point où le pétiole se relie à la tige - ou parfois où le limbe joint la tige en cas de feuille sessile.
 Stipulé : pourvu de stipule(s).
 - stique : à autant de rangées verticales que le préfixe l'indique (distique : portant deux rangées verticales d'organes homologues; tristique : 3...).
 Stolon : organe végétal de multiplication asexuée. C'est une tige aérienne qui pousse au-dessus du sol, généralement munie çà et là de racines, donnant ainsi naissance à une nouvelle plante. Ex. : les stolons du fraisier.
@@ -2173,7 +2223,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2191,7 +2241,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Tecteur : qui tapisse une surface externe.
 Tégument : membrane différenciée qui recouvre un organe.
@@ -2241,7 +2293,7 @@
 Tuberisé : se dit d'un organe renflé et gorgé de substances de réserves, transformé en tubercule.
 Tubes criblés : cellules vivantes disposées en files par lesquels transite la sève élaborée; éléments conducteurs du phloème.
 Tubulé (Fleuron) à corolle actinomorphe en tubes terminés par de minuscules lobes tous égaux (dans le capitule des composées)
-Turbiné : en parlant d'un élément végétal ou d'un coquillage, qui a la forme d'une toupie, d'un cône[16].
+Turbiné : en parlant d'un élément végétal ou d'un coquillage, qui a la forme d'une toupie, d'un cône.
 Turficole : se dit d'un organisme qui vit dans les milieux tourbeux, typiquement dans une tourbière.
 Turgescent : assez gorgé d'eau pour devenir ferme.
 Turion : jeune tige naissant d'une plante vivace. S'utilise aussi pour désigner, chez certaines lemnacées, de minuscules lames formées par les lentilles et assurant la persistance de l'espèce pendant l'hiver.</t>
@@ -2254,7 +2306,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2272,7 +2324,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Ubiquiste : qui croit indéfiniment dans des milieux divers
 Unciné : adjectif, se dit d'un organe en forme de crochet, ou terminé par un crochet (feuille, carpelle)
@@ -2294,7 +2348,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2312,7 +2366,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Vacuole : inclusion cytoplasmique généralement grande contenant un liquide.
 Vaisseau conducteur : élément spécialisé conducteur de la sève.
@@ -2348,7 +2404,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2367,6 +2423,8 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2374,7 +2432,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2392,7 +2450,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Xénogamie :fécondation d'une fleur par du pollen provenant d'un autre individu.
 Xénophyte : se dit d'une plante qui a été introduite depuis un autre emplacement géographique ; [préfixe xéno- (« indique un rapport avec l’étranger ») du grec xénos (« étranger, hôte »)]
@@ -2408,7 +2468,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>D%C3%A9cuss%C3%A9</t>
+          <t>Décussé</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2426,7 +2486,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Zoïde : spore ou gamète nageant librement grâce à des cils ou des flagelles.
 Zoïdogamie : fécondation résultant de la fusion de deux zoïdes (gamètes).
